--- a/Responsibilities.xlsx
+++ b/Responsibilities.xlsx
@@ -605,7 +605,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
